--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmip6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmip6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -553,6 +553,24 @@
   </si>
   <si>
     <t xml:space="preserve">A nudging increment refers to an amount added to parts of a model system. The phrase 'nudging_increment_in_X' refers to an increment in quantity X over a time period which should be defined in the bounds of the time coordinate. The surface called 'surface' means the lower boundary of the atmosphere. 'Amount' means mass per unit area. 'Snow and ice on land' means ice in glaciers, ice caps, ice sheets &amp; shelves, river and lake ice, any other ice on a land surface, such as frozen flood water, and snow lying on such ice or on the land surface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cltmodis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented in EC-Earth table 126: grib code 47.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clwmodis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented in EC-Earth table 126: grib code 48.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climodis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented in EC-Earth table 126: grib code 49.126</t>
   </si>
 </sst>
 </file>
@@ -562,7 +580,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -648,6 +666,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -697,7 +721,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -734,14 +758,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -807,17 +835,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="39:39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="66:68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.66"/>
@@ -830,7 +858,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="34.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,6 +1506,48 @@
       </c>
       <c r="K59" s="0" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1490,8 +1559,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ece2cmor3/resources/pre-list-of-identified-missing-cmip6-requested-variables.xlsx
+++ b/ece2cmor3/resources/pre-list-of-identified-missing-cmip6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="125">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -571,6 +571,15 @@
   </si>
   <si>
     <t xml:space="preserve">Implemented in EC-Earth table 126: grib code 49.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reffclis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented in EC-Earth table 126: grib code 24.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF3hr</t>
   </si>
 </sst>
 </file>
@@ -842,10 +851,10 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="66:68"/>
+      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.66"/>
@@ -1532,7 +1541,7 @@
       <c r="C67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="8" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1546,8 +1555,30 @@
       <c r="C68" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="8" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
